--- a/zad2/Wykres.xlsx
+++ b/zad2/Wykres.xlsx
@@ -9,8 +9,31 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Nauczyciel</t>
+  </si>
+  <si>
+    <t>Bez nauczyciela</t>
+  </si>
+  <si>
+    <t>Iteracje</t>
+  </si>
+  <si>
+    <t>wynik 1</t>
+  </si>
+  <si>
+    <t>wynik 2</t>
+  </si>
+  <si>
+    <t>iteracje</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -307,11 +330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337087496"/>
-        <c:axId val="337086320"/>
+        <c:axId val="356799536"/>
+        <c:axId val="356805024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337087496"/>
+        <c:axId val="356799536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +447,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337086320"/>
+        <c:crossAx val="356805024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337086320"/>
+        <c:axId val="356805024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -481,7 +504,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337087496"/>
+        <c:crossAx val="356799536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -772,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377299224"/>
-        <c:axId val="377297656"/>
+        <c:axId val="356800712"/>
+        <c:axId val="356801104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377299224"/>
+        <c:axId val="356800712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,12 +912,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377297656"/>
+        <c:crossAx val="356801104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377297656"/>
+        <c:axId val="356801104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +968,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377299224"/>
+        <c:crossAx val="356800712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -957,6 +980,1014 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Bez</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> nauczyciela </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dana1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$17:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$17:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dana2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$17:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$17:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211414640"/>
+        <c:axId val="211411504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211414640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211411504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211411504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211414640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12193153980752405"/>
+          <c:y val="0.88946704578594338"/>
+          <c:w val="0.31630008748906385"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Z nauczycielem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wynik 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wynik 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356808160"/>
+        <c:axId val="356804240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356808160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356804240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="356804240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356808160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1074,6 +2105,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
@@ -2078,20 +3189,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76206</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2112,16 +4241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,6 +4264,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2430,71 +4619,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>0.25</v>
       </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.25</v>
       </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-0.05</v>
+      </c>
+      <c r="N3">
+        <v>5.32</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>-3.97</v>
+      </c>
+      <c r="N4">
+        <v>6.77</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>-4.57</v>
+      </c>
+      <c r="N5">
+        <v>8.93</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>0.75</v>
       </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>-5.72</v>
+      </c>
+      <c r="N6">
+        <v>10.45</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>0.75</v>
       </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>-8.31</v>
+      </c>
+      <c r="N7">
+        <v>11.53</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40</v>
       </c>
@@ -2502,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
@@ -2510,47 +4756,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.76</v>
+      </c>
+      <c r="N17">
+        <v>8.4600000000000009</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
         <v>0.504</v>
       </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>13.55</v>
+      </c>
+      <c r="N18">
+        <v>51.37</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
         <v>0.40899999999999997</v>
       </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>30.22</v>
+      </c>
+      <c r="N19">
+        <v>78.22</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20">
         <v>0.24</v>
       </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>142</v>
+      </c>
+      <c r="N20">
+        <v>391</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0.1</v>
       </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>1303</v>
+      </c>
+      <c r="N21">
+        <v>2280</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2558,7 +4865,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -2566,7 +4873,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>35</v>
       </c>
@@ -2574,7 +4881,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40</v>
       </c>
@@ -2582,7 +4889,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>45</v>
       </c>

--- a/zad2/Wykres.xlsx
+++ b/zad2/Wykres.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Nauczyciel</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>iteracje</t>
+  </si>
+  <si>
+    <t>Współczynnik uczenia = 0,6</t>
+  </si>
+  <si>
+    <t>Współczynnik uczenia = 0,2</t>
+  </si>
+  <si>
+    <t>Ilość neuronów w warstwie ukrytej = 8</t>
   </si>
 </sst>
 </file>
@@ -250,7 +259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$1:$A$9</c:f>
+              <c:f>Arkusz1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -286,7 +295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$1:$B$9</c:f>
+              <c:f>Arkusz1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -709,7 +718,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$17:$A$26</c:f>
+              <c:f>Arkusz1!$A$18:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -748,7 +757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:f>Arkusz1!$B$18:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1174,7 +1183,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$L$17:$L$21</c:f>
+              <c:f>Arkusz1!$L$18:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1198,7 +1207,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$17:$M$21</c:f>
+              <c:f>Arkusz1!$M$18:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1298,7 +1307,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$L$17:$L$21</c:f>
+              <c:f>Arkusz1!$L$18:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1322,7 +1331,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$N$17:$N$21</c:f>
+              <c:f>Arkusz1!$N$18:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1491,7 +1500,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.12193153980752405"/>
           <c:y val="0.88946704578594338"/>
-          <c:w val="0.31630008748906385"/>
+          <c:w val="0.31848581130827203"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1641,15 +1650,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wynik 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Dane1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1677,7 +1678,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$L$3:$L$7</c:f>
+              <c:f>Arkusz1!$L$4:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1701,7 +1702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$3:$M$7</c:f>
+              <c:f>Arkusz1!$M$4:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1729,15 +1730,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wynik 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Dane2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1765,7 +1758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$L$3:$L$7</c:f>
+              <c:f>Arkusz1!$L$4:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1789,7 +1782,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$N$3:$N$7</c:f>
+              <c:f>Arkusz1!$N$4:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1797,7 +1790,7 @@
                   <c:v>5.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.77</c:v>
+                  <c:v>8.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.93</c:v>
@@ -4213,13 +4206,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4242,15 +4235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>387724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>82924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4273,13 +4266,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4303,13 +4296,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4619,281 +4612,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.25</v>
       </c>
       <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>-0.05</v>
-      </c>
-      <c r="N3">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>-3.97</v>
+        <v>-0.05</v>
       </c>
       <c r="N4">
-        <v>6.77</v>
+        <v>5.32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>-3.97</v>
+      </c>
+      <c r="N5">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>-4.57</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>8.93</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>30</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>-5.72</v>
-      </c>
-      <c r="N6">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>0.75</v>
       </c>
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>-5.72</v>
+      </c>
+      <c r="N7">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>-8.31</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>11.53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>40</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.76</v>
-      </c>
-      <c r="N17">
-        <v>8.4600000000000009</v>
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.504</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>13.55</v>
+        <v>2.76</v>
       </c>
       <c r="N18">
-        <v>51.37</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>0.40899999999999997</v>
+        <v>0.504</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>30.22</v>
+        <v>13.55</v>
       </c>
       <c r="N19">
-        <v>78.22</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>0.24</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>142</v>
+        <v>30.22</v>
       </c>
       <c r="N20">
-        <v>391</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>1303</v>
+        <v>142</v>
       </c>
       <c r="N21">
-        <v>2280</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>1303</v>
+      </c>
+      <c r="N22">
+        <v>2280</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>9.8000000000000004E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>9.1999999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>8.6999999999999994E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>45</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
